--- a/results/accel-glmm-results/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_multi_comp_hab_season_np.xlsx
@@ -44,37 +44,37 @@
     <t xml:space="preserve">habitat_type*season</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Winter)</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Winter)</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Deep/Low SAV Winter)</t>
@@ -140,16 +140,16 @@
     <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Deep/Low SAV Summer)</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Low SAV Summer)</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Mod/Dense SAV Winter)</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Dense SAV Spring)</t>
@@ -197,16 +197,16 @@
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Low SAV Summer)</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Low SAV Summer)</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Deep/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Low SAV Spring)</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">(Exposed/Low SAV Summer) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Winter)</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">(Exposed/Low SAV Spring) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Mod/Dense SAV Spring)</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Low SAV Fall)</t>
@@ -356,31 +356,31 @@
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Exposed/Low SAV Winter)</t>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Summer) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Summer) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Low SAV Summer)</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Mod/Dense SAV Fall)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Exposed/Low SAV Winter)</t>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Exposed/Low SAV Summer)</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Shallow/Low SAV Winter)</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Deep/Low SAV Winter)</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">(Exposed/Low SAV Spring) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Mod/Dense SAV Summer)</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Fall)</t>
@@ -494,15 +494,9 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Fall)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Deep/Low SAV Spring) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
@@ -545,12 +539,24 @@
     <t xml:space="preserve">(Exposed/Low SAV Spring) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Dense SAV Fall)</t>
   </si>
   <si>
@@ -560,15 +566,9 @@
     <t xml:space="preserve">(Mod/Dense SAV Spring) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
@@ -599,6 +599,12 @@
     <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Exposed/Low SAV Winter)</t>
   </si>
   <si>
@@ -606,12 +612,6 @@
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Spring) / (Exposed/Low SAV Summer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
   </si>
 </sst>
 </file>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62250582429849</v>
+        <v>0.616336883763738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0198589727628661</v>
+        <v>0.00754376643612456</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5411690035663</v>
+        <v>-39.5403770730282</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.92353402090028</v>
+        <v>0.519874993390271</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0305897288134761</v>
+        <v>0.00826754162609629</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>41.1349498074844</v>
+        <v>-41.1349618646237</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9799273312398</v>
+        <v>0.648255671098562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.033785063383776</v>
+        <v>0.00588532653365493</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>40.029803405393</v>
+        <v>-47.7457712909828</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.54261290930857</v>
+        <v>0.505064447768675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0140049302431629</v>
+        <v>0.00861834122724641</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>47.7466322709562</v>
+        <v>-40.0302075117288</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58783854482276</v>
+        <v>0.629787731087345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0170612598394512</v>
+        <v>0.0067670422683597</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>43.0316850609981</v>
+        <v>-43.0315764822389</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6700737245712</v>
+        <v>0.598778267459216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0238613463499368</v>
+        <v>0.00855509618953241</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>35.8960042520236</v>
+        <v>-35.895770544943</v>
       </c>
       <c r="I7" t="n">
-        <v>6.69993321065886e-280</v>
+        <v>6.75642011814833e-280</v>
       </c>
     </row>
     <row r="8">
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.91312459020278</v>
+        <v>0.522703641054957</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0367744081058236</v>
+        <v>0.0100475331724812</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>33.749456029225</v>
+        <v>-33.7494867880063</v>
       </c>
       <c r="I8" t="n">
-        <v>2.06890448032917e-247</v>
+        <v>2.06675599993639e-247</v>
       </c>
     </row>
     <row r="9">
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.48182495429898</v>
+        <v>0.674850036773474</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0176725930409189</v>
+        <v>0.00804841387419447</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -1198,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>32.975569937261</v>
+        <v>-32.9747892882395</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45742402439386e-236</v>
+        <v>3.54766443862364e-236</v>
       </c>
     </row>
     <row r="10">
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.53426487802966</v>
+        <v>0.651782839963166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0211422372405094</v>
+        <v>0.00898161082267401</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -1227,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>31.0631348712677</v>
+        <v>-31.0625382486104</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44092852119063e-209</v>
+        <v>1.46791007516651e-209</v>
       </c>
     </row>
     <row r="11">
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.52526843572881</v>
+        <v>0.655624458731743</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0207832415106216</v>
+        <v>0.00893350219060426</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -1256,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>30.9828095266752</v>
+        <v>-30.9825964313299</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74580788755698e-208</v>
+        <v>1.75738437794741e-208</v>
       </c>
     </row>
     <row r="12">
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.61372544310907</v>
+        <v>0.61969038202598</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0252284238213686</v>
+        <v>0.00968802836780281</v>
       </c>
       <c r="F12" t="e">
         <v>#NUM!</v>
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>30.6099567300142</v>
+        <v>-30.6092960819602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000171410540262818</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000174915889454889</v>
       </c>
     </row>
     <row r="13">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.540162535499139</v>
+        <v>0.540164887595608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.011414221599594</v>
+        <v>0.0114142800833987</v>
       </c>
       <c r="F13" t="e">
         <v>#NUM!</v>
@@ -1314,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-29.1459303247476</v>
+        <v>-29.1457018350767</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178742055944759</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000179937771536077</v>
       </c>
     </row>
     <row r="14">
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.90557005570706</v>
+        <v>1.90557382464296</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0433884125948579</v>
+        <v>0.0433885250511373</v>
       </c>
       <c r="F14" t="e">
         <v>#NUM!</v>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>28.318062000864</v>
+        <v>28.3181314785602</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000393526478407752</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000392752024401749</v>
       </c>
     </row>
     <row r="15">
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.54310159368043</v>
+        <v>0.543103932880088</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0120143134391765</v>
+        <v>0.0120143773155511</v>
       </c>
       <c r="F15" t="e">
         <v>#NUM!</v>
@@ -1372,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-27.5955169663481</v>
+        <v>-27.5952944062434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000239296341431448</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240772471676249</v>
       </c>
     </row>
     <row r="16">
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.25705468788971</v>
+        <v>1.25704570900662</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0112536074691147</v>
+        <v>0.0112535312978657</v>
       </c>
       <c r="F16" t="e">
         <v>#NUM!</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>25.5543127867016</v>
+        <v>25.553505354898</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000934212089387541</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000953717998719564</v>
       </c>
     </row>
     <row r="17">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.56133263704495</v>
+        <v>0.561333557000861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0128961215202307</v>
+        <v>0.0128961948254194</v>
       </c>
       <c r="F17" t="e">
         <v>#NUM!</v>
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>-25.1344423985489</v>
+        <v>-25.134269384655</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000039728244522584</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000399016564626547</v>
       </c>
     </row>
     <row r="18">
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.653513103605708</v>
+        <v>0.653506629661085</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0111546180954508</v>
+        <v>0.0111545421297474</v>
       </c>
       <c r="F18" t="e">
         <v>#NUM!</v>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>-24.922386206526</v>
+        <v>-24.9228894266798</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000808639616755341</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000798545262003669</v>
       </c>
     </row>
     <row r="19">
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.47380588419156</v>
+        <v>0.678521905982039</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0232864225950279</v>
+        <v>0.010720785507499</v>
       </c>
       <c r="F19" t="e">
         <v>#NUM!</v>
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>24.5470422793703</v>
+        <v>-24.5464222535168</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000883740636731467</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000897316288287791</v>
       </c>
     </row>
     <row r="20">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.54758020076626</v>
+        <v>0.646181077407092</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0283901763074421</v>
+        <v>0.0118540655164187</v>
       </c>
       <c r="F20" t="e">
         <v>#NUM!</v>
@@ -1517,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>23.8045983679888</v>
+        <v>-23.8037701431323</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000568659496785736</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000005800020973605</v>
       </c>
     </row>
     <row r="21">
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.599588157877104</v>
+        <v>0.599583710908503</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0131597117720408</v>
+        <v>0.0131596444558715</v>
       </c>
       <c r="F21" t="e">
         <v>#NUM!</v>
@@ -1546,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-23.3057304604103</v>
+        <v>-23.3060147481545</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000073684368200826</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000731968910993292</v>
       </c>
     </row>
     <row r="22">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.59295146511035</v>
+        <v>0.627772239804924</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0319967485535996</v>
+        <v>0.0126096735374895</v>
       </c>
       <c r="F22" t="e">
         <v>#NUM!</v>
@@ -1575,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>23.1792296678896</v>
+        <v>-23.1787802589478</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000140165018678927</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141635464092553</v>
       </c>
     </row>
     <row r="23">
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.29390845515229</v>
+        <v>1.29390740636806</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0144672926556503</v>
+        <v>0.0144672784254744</v>
       </c>
       <c r="F23" t="e">
         <v>#NUM!</v>
@@ -1604,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>23.0449537068217</v>
+        <v>23.0448852013587</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000314009078919729</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000314506128905916</v>
       </c>
     </row>
     <row r="24">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35482243876525</v>
+        <v>1.35484243322361</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0188794232035603</v>
+        <v>0.0188797913299264</v>
       </c>
       <c r="F24" t="e">
         <v>#NUM!</v>
@@ -1633,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>21.7919516513708</v>
+        <v>21.7929073896448</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000525554345769225</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000514698900055132</v>
       </c>
     </row>
     <row r="25">
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.69545327597786</v>
+        <v>1.69546175623105</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0413432363288662</v>
+        <v>0.0413435417906779</v>
       </c>
       <c r="F25" t="e">
         <v>#NUM!</v>
@@ -1662,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>21.6508151679499</v>
+        <v>21.6509686121791</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000113458080659497</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000113080977103761</v>
       </c>
     </row>
     <row r="26">
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.583236405648611</v>
+        <v>1.71455559608431</v>
       </c>
       <c r="E26" t="n">
-        <v>0.014607445852207</v>
+        <v>0.0429419916581794</v>
       </c>
       <c r="F26" t="e">
         <v>#NUM!</v>
@@ -1691,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>-21.5273295932458</v>
+        <v>21.5269328213932</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000164101132849292</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165511820256456</v>
       </c>
     </row>
     <row r="27">
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.53920528840512</v>
+        <v>0.649696958376192</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0309029567247588</v>
+        <v>0.0130440665820551</v>
       </c>
       <c r="F27" t="e">
         <v>#NUM!</v>
@@ -1720,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>21.4803806059494</v>
+        <v>-21.4795991353079</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000451349083936207</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000459005994049363</v>
       </c>
     </row>
     <row r="28">
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.31623368803751</v>
+        <v>1.31624477816719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0172833251553099</v>
+        <v>0.0172835706439053</v>
       </c>
       <c r="F28" t="e">
         <v>#NUM!</v>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>20.9257945233526</v>
+        <v>20.9263152731628</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000059246698298286</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000586031260995457</v>
       </c>
     </row>
     <row r="29">
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.665478304131494</v>
+        <v>0.665488010911509</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0132071307558771</v>
+        <v>0.0132073560053278</v>
       </c>
       <c r="F29" t="e">
         <v>#NUM!</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>-20.520394648085</v>
+        <v>-20.5196090268284</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000026896143024219</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000273342897780337</v>
       </c>
     </row>
     <row r="30">
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.68427887094062</v>
+        <v>0.684282745349649</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0132467063956676</v>
+        <v>0.0132468472859235</v>
       </c>
       <c r="F30" t="e">
         <v>#NUM!</v>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>-19.5979569623955</v>
+        <v>-19.597567007712</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000305819438794929</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000308171637754249</v>
       </c>
     </row>
     <row r="31">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.622984695688933</v>
+        <v>0.622984509593283</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0152368555035139</v>
+        <v>0.0152368596155663</v>
       </c>
       <c r="F31" t="e">
         <v>#NUM!</v>
@@ -1836,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>-19.3489476567077</v>
+        <v>-19.3489488685763</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000395288638877074</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000395279345479847</v>
       </c>
     </row>
     <row r="32">
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.814886664246279</v>
+        <v>0.814887009693654</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00870060482455976</v>
+        <v>0.00870060480794841</v>
       </c>
       <c r="F32" t="e">
         <v>#NUM!</v>
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>-19.1725042731906</v>
+        <v>-19.1724727335745</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000119341104197699</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000119413486128152</v>
       </c>
     </row>
     <row r="33">
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.699943853627928</v>
+        <v>0.69995223145993</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0131432528326956</v>
+        <v>0.0131434542746696</v>
       </c>
       <c r="F33" t="e">
         <v>#NUM!</v>
@@ -1894,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>-18.9989937842559</v>
+        <v>-18.9982925802959</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000330306260655949</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000334748303595491</v>
       </c>
     </row>
     <row r="34">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.37707999993122</v>
+        <v>0.726180422815816</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0233975093030577</v>
+        <v>0.0123382801663454</v>
       </c>
       <c r="F34" t="e">
         <v>#NUM!</v>
@@ -1923,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>18.8318265288185</v>
+        <v>-18.8313400042923</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000787026050497859</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000794290344737803</v>
       </c>
     </row>
     <row r="35">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.774761279167187</v>
+        <v>0.774763635037718</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0106107654473682</v>
+        <v>0.0106107838730204</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.633842244064</v>
+        <v>-18.6336445210765</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000324539585693076</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000325740935375395</v>
       </c>
     </row>
     <row r="36">
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.41745261562435</v>
+        <v>0.705492510493882</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0269157040129605</v>
+        <v>0.0133964361854822</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>18.3719661030064</v>
+        <v>-18.3718636457082</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000418542505227697</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000041933341001936</v>
       </c>
     </row>
     <row r="37">
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.612827866488441</v>
+        <v>1.63177612902146</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0163799659917787</v>
+        <v>0.0436149599884826</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -2010,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-18.3201936622342</v>
+        <v>18.3200970918801</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000108507593613305</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000108700302932387</v>
       </c>
     </row>
     <row r="38">
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.710831482348727</v>
+        <v>0.710835413580714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0134168915567477</v>
+        <v>0.0134169635293038</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>-18.0832440911123</v>
+        <v>-18.0829540901393</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000820624204000897</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000824952106485147</v>
       </c>
     </row>
     <row r="39">
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.679013847471584</v>
+        <v>0.679011954108103</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0149665925093703</v>
+        <v>0.014966558527392</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>-17.562822123227</v>
+        <v>-17.562939533868</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000901665184746539</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000899801827562893</v>
       </c>
     </row>
     <row r="40">
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.36962776946977</v>
+        <v>0.73013158142751</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0252319792999623</v>
+        <v>0.0134508521338075</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -2097,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>17.0736249555717</v>
+        <v>-17.0731681719526</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000443187456856509</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000446669190759173</v>
       </c>
     </row>
     <row r="41">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.95518841324631</v>
+        <v>0.511447276951692</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0777974139712583</v>
+        <v>0.0203508251488821</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>16.85052875115</v>
+        <v>-16.8509584823459</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000197563600761205</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000196133185397654</v>
       </c>
     </row>
     <row r="42">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.747645902122318</v>
+        <v>0.74764808047417</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0129992150882164</v>
+        <v>0.0129992596886652</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>-16.7267577769375</v>
+        <v>-16.7265815472868</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000158974391432819</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000159445365273446</v>
       </c>
     </row>
     <row r="43">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.25025198852782</v>
+        <v>1.25024311738509</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0167086990438842</v>
+        <v>0.0167086065622063</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -2184,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>16.7121139682836</v>
+        <v>16.7115569575401</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000203252499716044</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000205160133815824</v>
       </c>
     </row>
     <row r="44">
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.43011913759265</v>
+        <v>1.4301077747149</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0310775689845196</v>
+        <v>0.0310773389315952</v>
       </c>
       <c r="F44" t="e">
         <v>#NUM!</v>
@@ -2213,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>16.4631992480223</v>
+        <v>16.4628246798161</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000128135706799041</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000012893121173218</v>
       </c>
     </row>
     <row r="45">
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.89949972951498</v>
+        <v>0.526444993108113</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0743293517849459</v>
+        <v>0.0206005531473912</v>
       </c>
       <c r="F45" t="e">
         <v>#NUM!</v>
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>16.3959599981452</v>
+        <v>-16.3962366822749</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000388333817164787</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000386569639385441</v>
       </c>
     </row>
     <row r="46">
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.30911073455269</v>
+        <v>1.30912182660251</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0221933523011344</v>
+        <v>0.0221936378716512</v>
       </c>
       <c r="F46" t="e">
         <v>#NUM!</v>
@@ -2271,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>15.8879314675928</v>
+        <v>15.8883614374051</v>
       </c>
       <c r="I46" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000145959897818017</v>
+        <v>0.00000000000000000000000000000000000000000000000000000144962289493097</v>
       </c>
     </row>
     <row r="47">
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.37238745168846</v>
+        <v>1.37236820088695</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0277128151873159</v>
+        <v>0.0277124952262507</v>
       </c>
       <c r="F47" t="e">
         <v>#NUM!</v>
@@ -2300,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>15.6762074449214</v>
+        <v>15.6754738852809</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000418007802466966</v>
+        <v>0.0000000000000000000000000000000000000000000000000000422861915474442</v>
       </c>
     </row>
     <row r="48">
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.88922036321344</v>
+        <v>0.529309388240162</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0767418806392905</v>
+        <v>0.0215012604476026</v>
       </c>
       <c r="F48" t="e">
         <v>#NUM!</v>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>15.6609979095893</v>
+        <v>-15.6612768087342</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000531007005757681</v>
+        <v>0.0000000000000000000000000000000000000000000000000000528683350227469</v>
       </c>
     </row>
     <row r="49">
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.43328646332446</v>
+        <v>1.43325572848961</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0343045302405248</v>
+        <v>0.0343037746502125</v>
       </c>
       <c r="F49" t="e">
         <v>#NUM!</v>
@@ -2358,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>15.0400012064582</v>
+        <v>15.0391140141316</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000000000000000000000000000000000000000000000000762931240614109</v>
+        <v>0.000000000000000000000000000000000000000000000000773224451286169</v>
       </c>
     </row>
     <row r="50">
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.735456659300058</v>
+        <v>0.735460578260205</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0150637101494554</v>
+        <v>0.0150638071969596</v>
       </c>
       <c r="F50" t="e">
         <v>#NUM!</v>
@@ -2387,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>-15.0015572659936</v>
+        <v>-15.0012803983892</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00000000000000000000000000000000000000000000000136261787661744</v>
+        <v>0.00000000000000000000000000000000000000000000000136831418640661</v>
       </c>
     </row>
     <row r="51">
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.39682082449556</v>
+        <v>1.39683660889354</v>
       </c>
       <c r="E51" t="n">
-        <v>0.031947662812806</v>
+        <v>0.0319480636481318</v>
       </c>
       <c r="F51" t="e">
         <v>#NUM!</v>
@@ -2416,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>14.6118940418983</v>
+        <v>14.6123698970584</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000000000000000000000000000000000000000000000448149785057726</v>
+        <v>0.000000000000000000000000000000000000000000000445030131969451</v>
       </c>
     </row>
     <row r="52">
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.77036586730368</v>
+        <v>0.770356323718741</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0140730943471637</v>
+        <v>0.0140729531722354</v>
       </c>
       <c r="F52" t="e">
         <v>#NUM!</v>
@@ -2445,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>-14.2811903363855</v>
+        <v>-14.2818348243254</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0000000000000000000000000000000000000000000544659356942674</v>
+        <v>0.0000000000000000000000000000000000000000000539645049722258</v>
       </c>
     </row>
     <row r="53">
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.33784237027658</v>
+        <v>0.427726511939622</v>
       </c>
       <c r="E53" t="n">
-        <v>0.139424340747027</v>
+        <v>0.0255092718969217</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -2474,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>14.2397103582604</v>
+        <v>-14.2401493497861</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0000000000000000000000000000000000000000000986895888553988</v>
+        <v>0.0000000000000000000000000000000000000000000980715896134159</v>
       </c>
     </row>
     <row r="54">
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.710980126239726</v>
+        <v>0.710989212646989</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0174013082108364</v>
+        <v>0.0174015666004343</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>-13.9370556346394</v>
+        <v>-13.9365046391984</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00000000000000000000000000000000000000000716646126135447</v>
+        <v>0.00000000000000000000000000000000000000000722198774186653</v>
       </c>
     </row>
     <row r="55">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>2.27125473939149</v>
+        <v>0.440269194455952</v>
       </c>
       <c r="E55" t="n">
-        <v>0.134274126161051</v>
+        <v>0.0260287588557249</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>13.8759712456244</v>
+        <v>-13.87631164203</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000000000000000000000000000000000000000016831145618309</v>
+        <v>0.0000000000000000000000000000000000000000167514262617724</v>
       </c>
     </row>
     <row r="56">
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2.25896357710937</v>
+        <v>0.442664705770335</v>
       </c>
       <c r="E56" t="n">
-        <v>0.135827214577593</v>
+        <v>0.026617108845417</v>
       </c>
       <c r="F56" t="e">
         <v>#NUM!</v>
@@ -2561,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>13.5528306001478</v>
+        <v>-13.5531758224162</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00000000000000000000000000000000000000144842273020445</v>
+        <v>0.00000000000000000000000000000000000000144162534902217</v>
       </c>
     </row>
     <row r="57">
@@ -2578,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.24693240235001</v>
+        <v>1.24694528365575</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0205888113453675</v>
+        <v>0.0205890929459678</v>
       </c>
       <c r="F57" t="e">
         <v>#NUM!</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>13.3655648880427</v>
+        <v>13.3661457951728</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0000000000000000000000000000000000000182595037961582</v>
+        <v>0.000000000000000000000000000000000000018117501254275</v>
       </c>
     </row>
     <row r="58">
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1.75921561160726</v>
+        <v>1.75923931837092</v>
       </c>
       <c r="E58" t="n">
-        <v>0.074804217329174</v>
+        <v>0.0748059694309068</v>
       </c>
       <c r="F58" t="e">
         <v>#NUM!</v>
@@ -2619,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>13.2843401113287</v>
+        <v>13.2845248907142</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0000000000000000000000000000000000000542189725183847</v>
+        <v>0.0000000000000000000000000000000000000540853009936528</v>
       </c>
     </row>
     <row r="59">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.778316100602554</v>
+        <v>0.778319970184878</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0148257455908824</v>
+        <v>0.0148258187977563</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -2648,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>-13.1570824261542</v>
+        <v>-13.1568218687896</v>
       </c>
       <c r="I59" t="n">
-        <v>0.000000000000000000000000000000000000294413896766211</v>
+        <v>0.00000000000000000000000000000000000029543070589209</v>
       </c>
     </row>
     <row r="60">
@@ -2665,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.745246171820036</v>
+        <v>0.745255404157797</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0169833272399364</v>
+        <v>0.0169834930130526</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -2677,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>-12.9028128838209</v>
+        <v>-12.9023031740964</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00000000000000000000000000000000000824528539730871</v>
+        <v>0.00000000000000000000000000000000000830001376228483</v>
       </c>
     </row>
     <row r="61">
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.811235108266317</v>
+        <v>0.81125020484586</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0137088056588242</v>
+        <v>0.0137090954753935</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -2706,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>-12.3795065322888</v>
+        <v>-12.3783739746047</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00000000000000000000000000000000641080833073257</v>
+        <v>0.00000000000000000000000000000000650190730436746</v>
       </c>
     </row>
     <row r="62">
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36407773021845</v>
+        <v>1.36405753763473</v>
       </c>
       <c r="E62" t="n">
-        <v>0.034275336577618</v>
+        <v>0.0342747712033576</v>
       </c>
       <c r="F62" t="e">
         <v>#NUM!</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>12.3563153832314</v>
+        <v>12.35574715608</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0000000000000000000000000000000085562566664274</v>
+        <v>0.00000000000000000000000000000000861693304273636</v>
       </c>
     </row>
     <row r="63">
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30611933342155</v>
+        <v>1.30610968553587</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0283894928645489</v>
+        <v>0.0283893005548482</v>
       </c>
       <c r="F63" t="e">
         <v>#NUM!</v>
@@ -2764,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>12.2866848365732</v>
+        <v>12.28633746734</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0000000000000000000000000000000202913487868199</v>
+        <v>0.0000000000000000000000000000000203787051959268</v>
       </c>
     </row>
     <row r="64">
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.84831523739887</v>
+        <v>0.848317342949055</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0115000079564555</v>
+        <v>0.0115000238545486</v>
       </c>
       <c r="F64" t="e">
         <v>#NUM!</v>
@@ -2793,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>-12.1348069168514</v>
+        <v>-12.1346371690444</v>
       </c>
       <c r="I64" t="n">
-        <v>0.000000000000000000000000000000131238201778018</v>
+        <v>0.000000000000000000000000000000131510625866934</v>
       </c>
     </row>
     <row r="65">
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.475394681922342</v>
+        <v>0.475379420252931</v>
       </c>
       <c r="E65" t="n">
-        <v>0.029199945801769</v>
+        <v>0.0291995575328717</v>
       </c>
       <c r="F65" t="e">
         <v>#NUM!</v>
@@ -2822,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>-12.1064675718329</v>
+        <v>-12.1067625509815</v>
       </c>
       <c r="I65" t="n">
-        <v>0.000000000000000000000000000000185454994678224</v>
+        <v>0.000000000000000000000000000000184789436146247</v>
       </c>
     </row>
     <row r="66">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1.67426882193532</v>
+        <v>1.67430250235671</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0724986953998638</v>
+        <v>0.0725008215227855</v>
       </c>
       <c r="F66" t="e">
         <v>#NUM!</v>
@@ -2851,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>11.9019918545422</v>
+        <v>11.9023467989573</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00000000000000000000000000000219555717772932</v>
+        <v>0.0000000000000000000000000000021862370640368</v>
       </c>
     </row>
     <row r="67">
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.607174721999056</v>
+        <v>0.607161041731443</v>
       </c>
       <c r="E67" t="n">
-        <v>0.025488089540538</v>
+        <v>0.0254877604741454</v>
       </c>
       <c r="F67" t="e">
         <v>#NUM!</v>
@@ -2880,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>-11.8856674759436</v>
+        <v>-11.8860898619161</v>
       </c>
       <c r="I67" t="n">
-        <v>0.00000000000000000000000000000266965430009408</v>
+        <v>0.00000000000000000000000000000265619197662471</v>
       </c>
     </row>
     <row r="68">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.743847024348004</v>
+        <v>1.34436806147879</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0187032147206847</v>
+        <v>0.0338026488688045</v>
       </c>
       <c r="F68" t="e">
         <v>#NUM!</v>
@@ -2909,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>-11.7690527419448</v>
+        <v>11.7692212898771</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0000000000000000000000000000107072071415502</v>
+        <v>0.0000000000000000000000000000106858377944278</v>
       </c>
     </row>
     <row r="69">
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.853249496419343</v>
+        <v>0.853263142000752</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0116398809597308</v>
+        <v>0.0116401228721932</v>
       </c>
       <c r="F69" t="e">
         <v>#NUM!</v>
@@ -2938,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>-11.6335807377915</v>
+        <v>-11.6323527095056</v>
       </c>
       <c r="I69" t="n">
-        <v>0.00000000000000000000000000005285394104829</v>
+        <v>0.0000000000000000000000000000536199902629756</v>
       </c>
     </row>
     <row r="70">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2.00194342633942</v>
+        <v>2.00202099173273</v>
       </c>
       <c r="E70" t="n">
-        <v>0.124052651250907</v>
+        <v>0.124059726948216</v>
       </c>
       <c r="F70" t="e">
         <v>#NUM!</v>
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>11.2015809243556</v>
+        <v>11.2020012659894</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00000000000000000000000000760990657739143</v>
+        <v>0.00000000000000000000000000757387910417223</v>
       </c>
     </row>
     <row r="71">
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.507793423697835</v>
+        <v>0.507772523715962</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0310021796759358</v>
+        <v>0.0310014852119443</v>
       </c>
       <c r="F71" t="e">
         <v>#NUM!</v>
@@ -2996,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.0999205707866</v>
+        <v>-11.1003865012212</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0000000000000000000000000238555298103342</v>
+        <v>0.0000000000000000000000000237314893089287</v>
       </c>
     </row>
     <row r="72">
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.784081116893395</v>
+        <v>0.78409126221923</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0172448445987201</v>
+        <v>0.0172450957748036</v>
       </c>
       <c r="F72" t="e">
         <v>#NUM!</v>
@@ -3025,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>-11.0596580953999</v>
+        <v>-11.0590518050224</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0000000000000000000000000374008240687029</v>
+        <v>0.0000000000000000000000000376544777542621</v>
       </c>
     </row>
     <row r="73">
@@ -3042,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.812271110258</v>
+        <v>0.81227915059586</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0158052496505338</v>
+        <v>0.0158053429514193</v>
       </c>
       <c r="F73" t="e">
         <v>#NUM!</v>
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>-10.6855834988119</v>
+        <v>-10.6851174794369</v>
       </c>
       <c r="I73" t="n">
-        <v>0.00000000000000000000000225908096898537</v>
+        <v>0.00000000000000000000000227045565509167</v>
       </c>
     </row>
     <row r="74">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.661781977831967</v>
+        <v>0.661765419614573</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0262239618917326</v>
+        <v>0.0262235852394451</v>
       </c>
       <c r="F74" t="e">
         <v>#NUM!</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>-10.4178099458276</v>
+        <v>-10.4183303305652</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0000000000000000000000390704054575391</v>
+        <v>0.0000000000000000000000388572553598347</v>
       </c>
     </row>
     <row r="75">
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.553462659246446</v>
+        <v>0.553438501698656</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0329039065734505</v>
+        <v>0.0329031192482868</v>
       </c>
       <c r="F75" t="e">
         <v>#NUM!</v>
@@ -3112,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>-9.95039659049005</v>
+        <v>-9.95093455028411</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00000000000000000000477242383119026</v>
+        <v>0.00000000000000000000474669333903942</v>
       </c>
     </row>
     <row r="76">
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1.1871409812686</v>
+        <v>1.18714297463899</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0212080324016966</v>
+        <v>0.0212080803888606</v>
       </c>
       <c r="F76" t="e">
         <v>#NUM!</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>9.6025654019797</v>
+        <v>9.60265378954741</v>
       </c>
       <c r="I76" t="n">
-        <v>0.000000000000000000148159995860721</v>
+        <v>0.000000000000000000148032963708472</v>
       </c>
     </row>
     <row r="77">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1.21902562897982</v>
+        <v>1.21903053329947</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0257347288628049</v>
+        <v>0.0257349558791014</v>
       </c>
       <c r="F77" t="e">
         <v>#NUM!</v>
@@ -3170,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>9.38149815463172</v>
+        <v>9.38164371098201</v>
       </c>
       <c r="I77" t="n">
-        <v>0.00000000000000000123579572326219</v>
+        <v>0.00000000000000000123409060255129</v>
       </c>
     </row>
     <row r="78">
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.800426324480032</v>
+        <v>1.24934080735492</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0189963882471101</v>
+        <v>0.0296504094275869</v>
       </c>
       <c r="F78" t="e">
         <v>#NUM!</v>
@@ -3199,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>-9.37986380551846</v>
+        <v>9.38008382088728</v>
       </c>
       <c r="I78" t="n">
-        <v>0.00000000000000000125510201192048</v>
+        <v>0.0000000000000000012524857348968</v>
       </c>
     </row>
     <row r="79">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.80455047009875</v>
+        <v>0.804534536164932</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0191255662914759</v>
+        <v>0.0191251693897288</v>
       </c>
       <c r="F79" t="e">
         <v>#NUM!</v>
@@ -3228,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>-9.14832319608849</v>
+        <v>-9.14916499693249</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0000000000000000109865746952657</v>
+        <v>0.0000000000000000109013069932015</v>
       </c>
     </row>
     <row r="80">
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15332822020554</v>
+        <v>1.15332285363146</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0181820298345047</v>
+        <v>0.0181819607741754</v>
       </c>
       <c r="F80" t="e">
         <v>#NUM!</v>
@@ -3257,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>9.04873798053669</v>
+        <v>9.04843508666019</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0000000000000000274797323144483</v>
+        <v>0.0000000000000000275560521442585</v>
       </c>
     </row>
     <row r="81">
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.579518301144044</v>
+        <v>0.579502028190524</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0349423308539051</v>
+        <v>0.0349420289833779</v>
       </c>
       <c r="F81" t="e">
         <v>#NUM!</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>-9.04807602538763</v>
+        <v>-9.04836582630248</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0000000000000000276467957758035</v>
+        <v>0.0000000000000000275735330017359</v>
       </c>
     </row>
     <row r="82">
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.692937023146407</v>
+        <v>0.692930473170819</v>
       </c>
       <c r="E82" t="n">
-        <v>0.028259926334032</v>
+        <v>0.0282599601539564</v>
       </c>
       <c r="F82" t="e">
         <v>#NUM!</v>
@@ -3315,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>-8.9943793440693</v>
+        <v>-8.99451533571579</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0000000000000000451384337762625</v>
+        <v>0.0000000000000000450825898280389</v>
       </c>
     </row>
     <row r="83">
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1.18553289121902</v>
+        <v>1.18554824063456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0227538306153052</v>
+        <v>0.0227541697249287</v>
       </c>
       <c r="F83" t="e">
         <v>#NUM!</v>
@@ -3344,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>8.86745870407285</v>
+        <v>8.86811593867756</v>
       </c>
       <c r="I83" t="n">
-        <v>0.000000000000000142184818569705</v>
+        <v>0.000000000000000141348319370804</v>
       </c>
     </row>
     <row r="84">
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1.50087574561566</v>
+        <v>1.50089903827729</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0710803220844132</v>
+        <v>0.0710819586599833</v>
       </c>
       <c r="F84" t="e">
         <v>#NUM!</v>
@@ -3373,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>8.57380396980504</v>
+        <v>8.57406731540165</v>
       </c>
       <c r="I84" t="n">
-        <v>0.00000000000000190231405599556</v>
+        <v>0.0000000000000018979668424816</v>
       </c>
     </row>
     <row r="85">
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.837517225043672</v>
+        <v>0.837520477493235</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0178120384743012</v>
+        <v>0.0178120986242042</v>
       </c>
       <c r="F85" t="e">
         <v>#NUM!</v>
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.33723031639808</v>
+        <v>-8.33705194121091</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0000000000000144496600365364</v>
+        <v>0.0000000000000144714659665246</v>
       </c>
     </row>
     <row r="86">
@@ -3419,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16421718688232</v>
+        <v>1.16420374572419</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0212428103833526</v>
+        <v>0.0212426387735311</v>
       </c>
       <c r="F86" t="e">
         <v>#NUM!</v>
@@ -3431,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>8.33307651176074</v>
+        <v>8.33241488226738</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0000000000000149659620119866</v>
+        <v>0.0000000000000150498628313752</v>
       </c>
     </row>
     <row r="87">
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1.17822190749958</v>
+        <v>1.17821996694617</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0231955728718427</v>
+        <v>0.0231955059528848</v>
       </c>
       <c r="F87" t="e">
         <v>#NUM!</v>
@@ -3460,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>8.33072700247141</v>
+        <v>8.33065365500867</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0000000000000152660086431666</v>
+        <v>0.000000000000015275470428474</v>
       </c>
     </row>
     <row r="88">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21379438668531</v>
+        <v>1.21378674172498</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0283439560420842</v>
+        <v>0.0283437806891811</v>
       </c>
       <c r="F88" t="e">
         <v>#NUM!</v>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>8.29715696477259</v>
+        <v>8.29688631538891</v>
       </c>
       <c r="I88" t="n">
-        <v>0.000000000000020260165597084</v>
+        <v>0.000000000000020306357022812</v>
       </c>
     </row>
     <row r="89">
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1.6493266473298</v>
+        <v>1.64940093915308</v>
       </c>
       <c r="E89" t="n">
-        <v>0.101246121203489</v>
+        <v>0.101252548237916</v>
       </c>
       <c r="F89" t="e">
         <v>#NUM!</v>
@@ -3518,10 +3518,10 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>8.15111533767559</v>
+        <v>8.15169882109041</v>
       </c>
       <c r="I89" t="n">
-        <v>0.000000000000068510770825018</v>
+        <v>0.0000000000000681809491582595</v>
       </c>
     </row>
     <row r="90">
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.83326170038582</v>
+        <v>1.20010701544132</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0187398944688199</v>
+        <v>0.0269901899996285</v>
       </c>
       <c r="F90" t="e">
         <v>#NUM!</v>
@@ -3547,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.11067535906723</v>
+        <v>8.11081358043772</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0000000000000956444465693637</v>
+        <v>0.0000000000000955356997421949</v>
       </c>
     </row>
     <row r="91">
@@ -3564,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.685811304412632</v>
+        <v>0.685805003896091</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0320112042234544</v>
+        <v>0.0320111580497321</v>
       </c>
       <c r="F91" t="e">
         <v>#NUM!</v>
@@ -3576,10 +3576,10 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.08015910427946</v>
+        <v>-8.0802933487651</v>
       </c>
       <c r="I91" t="n">
-        <v>0.000000000000122896420981288</v>
+        <v>0.000000000000122761202938795</v>
       </c>
     </row>
     <row r="92">
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1.14708684882907</v>
+        <v>1.14708156556626</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0198716919015752</v>
+        <v>0.0198716260487299</v>
       </c>
       <c r="F92" t="e">
         <v>#NUM!</v>
@@ -3605,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>7.92129973403326</v>
+        <v>7.92102363135429</v>
       </c>
       <c r="I92" t="n">
-        <v>0.000000000000446577109784209</v>
+        <v>0.000000000000447570005512407</v>
       </c>
     </row>
     <row r="93">
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1.45023620335512</v>
+        <v>1.4502495953426</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0688195500307289</v>
+        <v>0.0688207081717356</v>
       </c>
       <c r="F93" t="e">
         <v>#NUM!</v>
@@ -3634,10 +3634,10 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>7.83340117361662</v>
+        <v>7.83353627862051</v>
       </c>
       <c r="I93" t="n">
-        <v>0.000000000000902207616495443</v>
+        <v>0.0000000000009012382041849</v>
       </c>
     </row>
     <row r="94">
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.37936774160531</v>
+        <v>1.37940417768715</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0585790510822218</v>
+        <v>0.0585811343300037</v>
       </c>
       <c r="F94" t="e">
         <v>#NUM!</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>7.57334690688628</v>
+        <v>7.57389961329436</v>
       </c>
       <c r="I94" t="n">
-        <v>0.00000000000691085662210673</v>
+        <v>0.00000000000688150224752766</v>
       </c>
     </row>
     <row r="95">
@@ -3680,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16778643168322</v>
+        <v>0.856317455623743</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0242796472626081</v>
+        <v>0.0178038632748622</v>
       </c>
       <c r="F95" t="e">
         <v>#NUM!</v>
@@ -3692,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>7.46037916436787</v>
+        <v>-7.46056739795179</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0000000000163920305889127</v>
+        <v>0.0000000000163686278864174</v>
       </c>
     </row>
     <row r="96">
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.850510808671371</v>
+        <v>0.850532468887536</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0186884410210802</v>
+        <v>0.0186888961191656</v>
       </c>
       <c r="F96" t="e">
         <v>#NUM!</v>
@@ -3721,10 +3721,10 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>-7.3688941667204</v>
+        <v>-7.36774338289937</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0000000000326893428067179</v>
+        <v>0.0000000000329726804539335</v>
       </c>
     </row>
     <row r="97">
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.88825180343936</v>
+        <v>0.888267836949024</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0146306466708267</v>
+        <v>0.0146309517785717</v>
       </c>
       <c r="F97" t="e">
         <v>#NUM!</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>-7.19434029767744</v>
+        <v>-7.19322425735093</v>
       </c>
       <c r="I97" t="n">
-        <v>0.000000000119250614255387</v>
+        <v>0.000000000120229868923252</v>
       </c>
     </row>
     <row r="98">
@@ -3767,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.652425696069647</v>
+        <v>0.652395599711194</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0391745591995434</v>
+        <v>0.0391735080853587</v>
       </c>
       <c r="F98" t="e">
         <v>#NUM!</v>
@@ -3779,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>-7.11236151662954</v>
+        <v>-7.11299252156742</v>
       </c>
       <c r="I98" t="n">
-        <v>0.000000000216740556657555</v>
+        <v>0.000000000215751525457528</v>
       </c>
     </row>
     <row r="99">
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13452493687322</v>
+        <v>0.881428169314074</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0214847347475616</v>
+        <v>0.0166918130787795</v>
       </c>
       <c r="F99" t="e">
         <v>#NUM!</v>
@@ -3808,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>6.66486872174716</v>
+        <v>-6.66474076317963</v>
       </c>
       <c r="I99" t="n">
-        <v>0.00000000503313864789231</v>
+        <v>0.00000000503752561752404</v>
       </c>
     </row>
     <row r="100">
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.835944845134169</v>
+        <v>1.19626634800974</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0225521209888286</v>
+        <v>0.0322728203663892</v>
       </c>
       <c r="F100" t="e">
         <v>#NUM!</v>
@@ -3837,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>-6.64217641008627</v>
+        <v>6.64265790586491</v>
       </c>
       <c r="I100" t="n">
-        <v>0.00000000587260941003799</v>
+        <v>0.00000000585345010868885</v>
       </c>
     </row>
     <row r="101">
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.876233628334748</v>
+        <v>0.876222168370083</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0175109202743621</v>
+        <v>0.0175107397828281</v>
       </c>
       <c r="F101" t="e">
         <v>#NUM!</v>
@@ -3866,10 +3866,10 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>-6.61131438516762</v>
+        <v>-6.6119505122915</v>
       </c>
       <c r="I101" t="n">
-        <v>0.00000000723752811585323</v>
+        <v>0.00000000720648737375588</v>
       </c>
     </row>
     <row r="102">
@@ -3883,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.1601628534187</v>
+        <v>1.16017522518912</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0262745163257538</v>
+        <v>0.0262748693964713</v>
       </c>
       <c r="F102" t="e">
         <v>#NUM!</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>6.55974935391036</v>
+        <v>6.56020201975542</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0000000102406761224736</v>
+        <v>0.0000000102096367234171</v>
       </c>
     </row>
     <row r="103">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1.4723426244433</v>
+        <v>1.47240751626882</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0875200146756533</v>
+        <v>0.0875255988454919</v>
       </c>
       <c r="F103" t="e">
         <v>#NUM!</v>
@@ -3924,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>6.50802843751581</v>
+        <v>6.50864145852153</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0000000144672662036074</v>
+        <v>0.0000000144083608941784</v>
       </c>
     </row>
     <row r="104">
@@ -3941,10 +3941,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.681376762335731</v>
+        <v>0.681340277283583</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0420716449488859</v>
+        <v>0.0420701456118574</v>
       </c>
       <c r="F104" t="e">
         <v>#NUM!</v>
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>-6.2132892051232</v>
+        <v>-6.21404515137683</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0000000985849648127994</v>
+        <v>0.0000000981115913908845</v>
       </c>
     </row>
     <row r="105">
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.780113274708047</v>
+        <v>0.780091819547199</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0315548385313019</v>
+        <v>0.0315542910069993</v>
       </c>
       <c r="F105" t="e">
         <v>#NUM!</v>
@@ -3982,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>-6.13898630841834</v>
+        <v>-6.13960392480374</v>
       </c>
       <c r="I105" t="n">
-        <v>0.000000157794475752423</v>
+        <v>0.000000157182226713961</v>
       </c>
     </row>
     <row r="106">
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.740499560505797</v>
+        <v>1.35044615535588</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0363370664706911</v>
+        <v>0.066268260381201</v>
       </c>
       <c r="F106" t="e">
         <v>#NUM!</v>
@@ -4011,10 +4011,10 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>-6.12235607852471</v>
+        <v>6.12240791922139</v>
       </c>
       <c r="I106" t="n">
-        <v>0.000000175183205861752</v>
+        <v>0.00000017512620091197</v>
       </c>
     </row>
     <row r="107">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.89269316470874</v>
+        <v>0.89269229895362</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0166432812389421</v>
+        <v>0.0166432507060479</v>
       </c>
       <c r="F107" t="e">
         <v>#NUM!</v>
@@ -4040,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>-6.08844520343905</v>
+        <v>-6.08850248663844</v>
       </c>
       <c r="I107" t="n">
-        <v>0.000000216623677640569</v>
+        <v>0.00000021654619965972</v>
       </c>
     </row>
     <row r="108">
@@ -4057,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1.12838532167711</v>
+        <v>0.886224033251401</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0226951000496481</v>
+        <v>0.0178245652136365</v>
       </c>
       <c r="F108" t="e">
         <v>#NUM!</v>
@@ -4069,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>6.00548393120733</v>
+        <v>-6.00536465803846</v>
       </c>
       <c r="I108" t="n">
-        <v>0.000000362447910392877</v>
+        <v>0.000000362714470355347</v>
       </c>
     </row>
     <row r="109">
@@ -4086,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1.55765217547545</v>
+        <v>0.641974310415879</v>
       </c>
       <c r="E109" t="n">
-        <v>0.117050075650722</v>
+        <v>0.0482420238859126</v>
       </c>
       <c r="F109" t="e">
         <v>#NUM!</v>
@@ -4098,10 +4098,10 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>5.89764488550832</v>
+        <v>-5.89791802900506</v>
       </c>
       <c r="I109" t="n">
-        <v>0.000000700580275939521</v>
+        <v>0.000000699421838188676</v>
       </c>
     </row>
     <row r="110">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.913294073960976</v>
+        <v>0.913294584246459</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0145894435614773</v>
+        <v>0.0145894297511734</v>
       </c>
       <c r="F110" t="e">
         <v>#NUM!</v>
@@ -4127,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>-5.67762269324968</v>
+        <v>-5.67759626354037</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00000259501162148618</v>
+        <v>0.00000259541247951193</v>
       </c>
     </row>
     <row r="111">
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3191813759557</v>
+        <v>0.758050743924054</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0646800462191687</v>
+        <v>0.0371678376782017</v>
       </c>
       <c r="F111" t="e">
         <v>#NUM!</v>
@@ -4156,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>5.64978331814339</v>
+        <v>-5.64961058703928</v>
       </c>
       <c r="I111" t="n">
-        <v>0.00000305235392922751</v>
+        <v>0.00000305542242137162</v>
       </c>
     </row>
     <row r="112">
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.876416859915192</v>
+        <v>1.14101619323534</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0205046299659264</v>
+        <v>0.0266951938488911</v>
       </c>
       <c r="F112" t="e">
         <v>#NUM!</v>
@@ -4185,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>-5.63829523290051</v>
+        <v>5.63854362872018</v>
       </c>
       <c r="I112" t="n">
-        <v>0.00000326309573270713</v>
+        <v>0.00000325839308938445</v>
       </c>
     </row>
     <row r="113">
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.714365410518939</v>
+        <v>0.714332057765867</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0429358401384545</v>
+        <v>0.0429346618359266</v>
       </c>
       <c r="F113" t="e">
         <v>#NUM!</v>
@@ -4214,10 +4214,10 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>-5.59636019670733</v>
+        <v>-5.59702929771557</v>
       </c>
       <c r="I113" t="n">
-        <v>0.00000415907494864577</v>
+        <v>0.00000414306152177005</v>
       </c>
     </row>
     <row r="114">
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11139783000221</v>
+        <v>0.899758158887159</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0212346955082875</v>
+        <v>0.0171911027823546</v>
       </c>
       <c r="F114" t="e">
         <v>#NUM!</v>
@@ -4243,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>5.52794384574994</v>
+        <v>-5.52848723016907</v>
       </c>
       <c r="I114" t="n">
-        <v>0.00000615610862132699</v>
+        <v>0.00000613707471620921</v>
       </c>
     </row>
     <row r="115">
@@ -4260,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1.2313521545508</v>
+        <v>1.23138348656577</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0486846400441006</v>
+        <v>0.0486864003633824</v>
       </c>
       <c r="F115" t="e">
         <v>#NUM!</v>
@@ -4272,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>5.26367743010319</v>
+        <v>5.26426460139391</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0000268283999263917</v>
+        <v>0.0000267428064098326</v>
       </c>
     </row>
     <row r="116">
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1.10800093240275</v>
+        <v>1.10799549803382</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0222191549388058</v>
+        <v>0.0222190701514254</v>
       </c>
       <c r="F116" t="e">
         <v>#NUM!</v>
@@ -4301,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>5.11422365991665</v>
+        <v>5.11397351133451</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0000598564425869389</v>
+        <v>0.000059935806277203</v>
       </c>
     </row>
     <row r="117">
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08993664237721</v>
+        <v>1.08993392877681</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0185194470115414</v>
+        <v>0.0185194086367311</v>
       </c>
       <c r="F117" t="e">
         <v>#NUM!</v>
@@ -4330,10 +4330,10 @@
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>5.06844902274326</v>
+        <v>5.0683003792094</v>
       </c>
       <c r="I117" t="n">
-        <v>0.000076203369136224</v>
+        <v>0.0000762628900662521</v>
       </c>
     </row>
     <row r="118">
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.778070026845685</v>
+        <v>1.28524604560573</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0387603134756554</v>
+        <v>0.0640262241751725</v>
       </c>
       <c r="F118" t="e">
         <v>#NUM!</v>
@@ -4359,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>-5.03731529711993</v>
+        <v>5.03750962159639</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0000897002839741171</v>
+        <v>0.00008960929346415</v>
       </c>
     </row>
     <row r="119">
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.608403295177907</v>
+        <v>0.608382436474257</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0600875524048066</v>
+        <v>0.0600860672322025</v>
       </c>
       <c r="F119" t="e">
         <v>#NUM!</v>
@@ -4388,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>-5.03142684560676</v>
+        <v>-5.03172584724675</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0000925001461423768</v>
+        <v>0.0000923559669550551</v>
       </c>
     </row>
     <row r="120">
@@ -4405,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.912840712197179</v>
+        <v>0.912841984465234</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0165822775916311</v>
+        <v>0.0165822839499179</v>
       </c>
       <c r="F120" t="e">
         <v>#NUM!</v>
@@ -4417,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>-5.02014791962867</v>
+        <v>-5.02007626692839</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0000981002391053015</v>
+        <v>0.0000981368393940516</v>
       </c>
     </row>
     <row r="121">
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1.12381285099163</v>
+        <v>1.12380329323436</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0266825800793313</v>
+        <v>0.0266822671629725</v>
       </c>
       <c r="F121" t="e">
         <v>#NUM!</v>
@@ -4446,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>4.91629993378358</v>
+        <v>4.91595757245139</v>
       </c>
       <c r="I121" t="n">
-        <v>0.000167570957908518</v>
+        <v>0.000167864110674639</v>
       </c>
     </row>
     <row r="122">
@@ -4463,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.79096553111506</v>
+        <v>0.790954584128173</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0383660878501201</v>
+        <v>0.0383658328809158</v>
       </c>
       <c r="F122" t="e">
         <v>#NUM!</v>
@@ -4475,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>-4.83453305291608</v>
+        <v>-4.83478360110716</v>
       </c>
       <c r="I122" t="n">
-        <v>0.000253571206739053</v>
+        <v>0.000253252051135548</v>
       </c>
     </row>
     <row r="123">
@@ -4492,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1.2273998650115</v>
+        <v>1.22744272595711</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0527370026060834</v>
+        <v>0.0527392815350366</v>
       </c>
       <c r="F123" t="e">
         <v>#NUM!</v>
@@ -4504,10 +4504,10 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>4.76879167060769</v>
+        <v>4.76956483393926</v>
       </c>
       <c r="I123" t="n">
-        <v>0.000352134971368323</v>
+        <v>0.000350786201481497</v>
       </c>
     </row>
     <row r="124">
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.787625593255224</v>
+        <v>0.787636258888322</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0398310540152556</v>
+        <v>0.0398318589494666</v>
       </c>
       <c r="F124" t="e">
         <v>#NUM!</v>
@@ -4533,10 +4533,10 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>-4.72073316571091</v>
+        <v>-4.72043392403189</v>
       </c>
       <c r="I124" t="n">
-        <v>0.000446492501517043</v>
+        <v>0.000447149896555377</v>
       </c>
     </row>
     <row r="125">
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1.07974242439763</v>
+        <v>0.926142730835302</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0184842697519122</v>
+        <v>0.0158548413849621</v>
       </c>
       <c r="F125" t="e">
         <v>#NUM!</v>
@@ -4562,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>4.48167860390358</v>
+        <v>-4.48191670863301</v>
       </c>
       <c r="I125" t="n">
-        <v>0.00140710611561802</v>
+        <v>0.00140553672364625</v>
       </c>
     </row>
     <row r="126">
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1.73250542612977</v>
+        <v>1.73274687351721</v>
       </c>
       <c r="E126" t="n">
-        <v>0.213295511725628</v>
+        <v>0.213340088975475</v>
       </c>
       <c r="F126" t="e">
         <v>#NUM!</v>
@@ -4591,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>4.46390337133966</v>
+        <v>4.46472444334212</v>
       </c>
       <c r="I126" t="n">
-        <v>0.00152911753515022</v>
+        <v>0.00152326546935584</v>
       </c>
     </row>
     <row r="127">
@@ -4608,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.4223510016828</v>
+        <v>1.42236316779946</v>
       </c>
       <c r="E127" t="n">
-        <v>0.113304616405771</v>
+        <v>0.113306006758283</v>
       </c>
       <c r="F127" t="e">
         <v>#NUM!</v>
@@ -4620,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>4.4226803398839</v>
+        <v>4.4227712736541</v>
       </c>
       <c r="I127" t="n">
-        <v>0.00185219447251824</v>
+        <v>0.00185141480492565</v>
       </c>
     </row>
     <row r="128">
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30269838723011</v>
+        <v>0.767630726106333</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0790434920837944</v>
+        <v>0.0465777553930412</v>
       </c>
       <c r="F128" t="e">
         <v>#NUM!</v>
@@ -4649,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>4.35814108029858</v>
+        <v>-4.35824455266895</v>
       </c>
       <c r="I128" t="n">
-        <v>0.00249226461078145</v>
+        <v>0.00249108684994582</v>
       </c>
     </row>
     <row r="129">
@@ -4666,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1.68315931396743</v>
+        <v>1.68338322466473</v>
       </c>
       <c r="E129" t="n">
-        <v>0.206803481164742</v>
+        <v>0.206845450587986</v>
       </c>
       <c r="F129" t="e">
         <v>#NUM!</v>
@@ -4678,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>4.23771825890426</v>
+        <v>4.23850461972068</v>
       </c>
       <c r="I129" t="n">
-        <v>0.00429025458428251</v>
+        <v>0.00427525751783839</v>
       </c>
     </row>
     <row r="130">
@@ -4695,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1.67405069928153</v>
+        <v>1.67427347747106</v>
       </c>
       <c r="E130" t="n">
-        <v>0.20619603810459</v>
+        <v>0.206237825739726</v>
       </c>
       <c r="F130" t="e">
         <v>#NUM!</v>
@@ -4707,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>4.18314709777304</v>
+        <v>4.18393635558991</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0054625234498143</v>
+        <v>0.00544358270352192</v>
       </c>
     </row>
     <row r="131">
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.718385457506738</v>
+        <v>0.71838506787114</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0579609447101895</v>
+        <v>0.057961131531903</v>
       </c>
       <c r="F131" t="e">
         <v>#NUM!</v>
@@ -4736,10 +4736,10 @@
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>-4.09940308133214</v>
+        <v>-4.09939436698188</v>
       </c>
       <c r="I131" t="n">
-        <v>0.00787012456268245</v>
+        <v>0.00787042087800649</v>
       </c>
     </row>
     <row r="132">
@@ -4753,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1.38183886763422</v>
+        <v>1.38184193701321</v>
       </c>
       <c r="E132" t="n">
-        <v>0.109466873943249</v>
+        <v>0.109467529096267</v>
       </c>
       <c r="F132" t="e">
         <v>#NUM!</v>
@@ -4765,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>4.08258292143175</v>
+        <v>4.082595595048</v>
       </c>
       <c r="I132" t="n">
-        <v>0.00846220339202244</v>
+        <v>0.00846174177165178</v>
       </c>
     </row>
     <row r="133">
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37436088400021</v>
+        <v>1.37436400179124</v>
       </c>
       <c r="E133" t="n">
-        <v>0.109325104839308</v>
+        <v>0.109325764058437</v>
       </c>
       <c r="F133" t="e">
         <v>#NUM!</v>
@@ -4794,10 +4794,10 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>3.99753912528248</v>
+        <v>3.99755260758441</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0121608387265056</v>
+        <v>0.0121601463157351</v>
       </c>
     </row>
     <row r="134">
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1.17071982181404</v>
+        <v>1.17075267469998</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0475369631385836</v>
+        <v>0.0475387745615998</v>
       </c>
       <c r="F134" t="e">
         <v>#NUM!</v>
@@ -4823,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>3.88176761502642</v>
+        <v>3.88241971546806</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0197029904186692</v>
+        <v>0.0196502118106432</v>
       </c>
     </row>
     <row r="135">
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1.07389927121406</v>
+        <v>0.931181887374951</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0199180463183093</v>
+        <v>0.0172710800605926</v>
       </c>
       <c r="F135" t="e">
         <v>#NUM!</v>
@@ -4852,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>3.843998526948</v>
+        <v>-3.84422262147478</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0229986890955647</v>
+        <v>0.0229776852056967</v>
       </c>
     </row>
     <row r="136">
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.07606308593036</v>
+        <v>1.07606191486298</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0215669411575633</v>
+        <v>0.0215668926537784</v>
       </c>
       <c r="F136" t="e">
         <v>#NUM!</v>
@@ -4881,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>3.65769095898701</v>
+        <v>3.65764090519411</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0483545515803725</v>
+        <v>0.0483639926659454</v>
       </c>
     </row>
     <row r="137">
@@ -4898,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1.05179064333497</v>
+        <v>1.05178789096623</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0146115283918009</v>
+        <v>0.0146114729855151</v>
       </c>
       <c r="F137" t="e">
         <v>#NUM!</v>
@@ -4910,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>3.63474689729075</v>
+        <v>3.63456279842158</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0528681977887377</v>
+        <v>0.0529059614671072</v>
       </c>
     </row>
     <row r="138">
@@ -4927,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.727475158939382</v>
+        <v>0.727463769007419</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0642053828882868</v>
+        <v>0.0642047102782995</v>
       </c>
       <c r="F138" t="e">
         <v>#NUM!</v>
@@ -4939,10 +4939,10 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>-3.60506718301507</v>
+        <v>-3.60522590424421</v>
       </c>
       <c r="I138" t="n">
-        <v>0.059293715539426</v>
+        <v>0.0592574872126961</v>
       </c>
     </row>
     <row r="139">
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.74641758639256</v>
+        <v>0.746422494581636</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0605889197272263</v>
+        <v>0.0605895362795722</v>
       </c>
       <c r="F139" t="e">
         <v>#NUM!</v>
@@ -4968,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>-3.60304826875278</v>
+        <v>-3.60295428924689</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0597563484370621</v>
+        <v>0.0597779658761</v>
       </c>
     </row>
     <row r="140">
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1.55885262627004</v>
+        <v>1.55905313673333</v>
       </c>
       <c r="E140" t="n">
-        <v>0.193154714515206</v>
+        <v>0.193192851385686</v>
       </c>
       <c r="F140" t="e">
         <v>#NUM!</v>
@@ -4997,10 +4997,10 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>3.58289317655708</v>
+        <v>3.58368461192997</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0645638232151693</v>
+        <v>0.0643684128853346</v>
       </c>
     </row>
     <row r="141">
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1.22684671879414</v>
+        <v>0.815064445257977</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0768727728885215</v>
+        <v>0.0510718910495978</v>
       </c>
       <c r="F141" t="e">
         <v>#NUM!</v>
@@ -5026,10 +5026,10 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>3.26286420048171</v>
+        <v>-3.26345808294366</v>
       </c>
       <c r="I141" t="n">
-        <v>0.209555476431763</v>
+        <v>0.20911678162637</v>
       </c>
     </row>
     <row r="142">
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.955039138805176</v>
+        <v>0.955024270452943</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0135230329474896</v>
+        <v>0.0135228829305395</v>
       </c>
       <c r="F142" t="e">
         <v>#NUM!</v>
@@ -5055,10 +5055,10 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>-3.24887352837216</v>
+        <v>-3.24995847708539</v>
       </c>
       <c r="I142" t="n">
-        <v>0.220139660492168</v>
+        <v>0.219301534024741</v>
       </c>
     </row>
     <row r="143">
@@ -5072,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1.48358071229906</v>
+        <v>1.48378139397025</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184222308251008</v>
+        <v>0.184259842261633</v>
       </c>
       <c r="F143" t="e">
         <v>#NUM!</v>
@@ -5084,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>3.17665719091213</v>
+        <v>3.17752891185266</v>
       </c>
       <c r="I143" t="n">
-        <v>0.283067751177506</v>
+        <v>0.282218171075956</v>
       </c>
     </row>
     <row r="144">
@@ -5101,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.862102315219656</v>
+        <v>0.86208823736285</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0405721614531125</v>
+        <v>0.0405718061484951</v>
       </c>
       <c r="F144" t="e">
         <v>#NUM!</v>
@@ -5113,10 +5113,10 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>-3.15289782718933</v>
+        <v>-3.15322093555654</v>
       </c>
       <c r="I144" t="n">
-        <v>0.307150918386143</v>
+        <v>0.306811128040711</v>
       </c>
     </row>
     <row r="145">
@@ -5130,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>1.06815124991403</v>
+        <v>1.068141577197</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0227515396325805</v>
+        <v>0.0227513969580649</v>
       </c>
       <c r="F145" t="e">
         <v>#NUM!</v>
@@ -5142,10 +5142,10 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>3.09528581561839</v>
+        <v>3.09485205013137</v>
       </c>
       <c r="I145" t="n">
-        <v>0.37358431693476</v>
+        <v>0.374131077494337</v>
       </c>
     </row>
     <row r="146">
@@ -5159,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1.27978565666263</v>
+        <v>1.27978286512815</v>
       </c>
       <c r="E146" t="n">
-        <v>0.102815458490971</v>
+        <v>0.102815627074901</v>
       </c>
       <c r="F146" t="e">
         <v>#NUM!</v>
@@ -5171,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>3.07068281543727</v>
+        <v>3.07064393175543</v>
       </c>
       <c r="I146" t="n">
-        <v>0.405782803593784</v>
+        <v>0.405835646348723</v>
       </c>
     </row>
     <row r="147">
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1.45939315840851</v>
+        <v>1.45959409315811</v>
       </c>
       <c r="E147" t="n">
-        <v>0.180430892083687</v>
+        <v>0.180468193885429</v>
       </c>
       <c r="F147" t="e">
         <v>#NUM!</v>
@@ -5200,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>3.05757414017577</v>
+        <v>3.05847653216725</v>
       </c>
       <c r="I147" t="n">
-        <v>0.423959227457041</v>
+        <v>0.422684455568604</v>
       </c>
     </row>
     <row r="148">
@@ -5217,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1.02931755286196</v>
+        <v>1.0293240707934</v>
       </c>
       <c r="E148" t="n">
-        <v>0.00981995565316068</v>
+        <v>0.00982002545969968</v>
       </c>
       <c r="F148" t="e">
         <v>#NUM!</v>
@@ -5229,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>3.02885003107369</v>
+        <v>3.02951142047552</v>
       </c>
       <c r="I148" t="n">
-        <v>0.466424371648088</v>
+        <v>0.465404320846615</v>
       </c>
     </row>
     <row r="149">
@@ -5246,10 +5246,10 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.96059416160543</v>
+        <v>0.960592184595466</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0128307134979229</v>
+        <v>0.012830673935947</v>
       </c>
       <c r="F149" t="e">
         <v>#NUM!</v>
@@ -5258,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>-3.00988905809738</v>
+        <v>-3.01004622854978</v>
       </c>
       <c r="I149" t="n">
-        <v>0.496551947382902</v>
+        <v>0.496295066876442</v>
       </c>
     </row>
     <row r="150">
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.746842368074277</v>
+        <v>0.746737695011177</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0918843399306319</v>
+        <v>0.0918778664635128</v>
       </c>
       <c r="F150" t="e">
         <v>#NUM!</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>-2.37259293467882</v>
+        <v>-2.37356673225739</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.90969701123102</v>
+        <v>0.909688492826953</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0722549078387623</v>
+        <v>0.0722545005953751</v>
       </c>
       <c r="F151" t="e">
         <v>#NUM!</v>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>-1.19157416624068</v>
+        <v>-1.1916876181589</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1.01625230481897</v>
+        <v>0.957518029481851</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0486492454345547</v>
+        <v>0.0202386103674525</v>
       </c>
       <c r="F152" t="e">
         <v>#NUM!</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0.33677118037348</v>
+        <v>-2.05382456213999</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -5362,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.957510928070336</v>
+        <v>0.994588429384237</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0202385352460976</v>
+        <v>0.0116005649501227</v>
       </c>
       <c r="F153" t="e">
         <v>#NUM!</v>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>-2.05416783766535</v>
+        <v>-0.465227478656488</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1.11273283577924</v>
+        <v>1.13603123106884</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0531316739919062</v>
+        <v>0.140095871902156</v>
       </c>
       <c r="F154" t="e">
         <v>#NUM!</v>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>2.23710273035751</v>
+        <v>1.03422280590991</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -5420,10 +5420,10 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0.994588382329401</v>
+        <v>1.03753117087001</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0116005331488192</v>
+        <v>0.127903764572608</v>
       </c>
       <c r="F155" t="e">
         <v>#NUM!</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.465232788269579</v>
+        <v>0.298871703302717</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1.13586919229856</v>
+        <v>0.886208670106935</v>
       </c>
       <c r="E156" t="n">
-        <v>0.140066170785381</v>
+        <v>0.114187763874441</v>
       </c>
       <c r="F156" t="e">
         <v>#NUM!</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1.03313777448061</v>
+        <v>-0.937548102463844</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1.03738260212111</v>
+        <v>0.741141776283802</v>
       </c>
       <c r="E157" t="n">
-        <v>0.127876571014963</v>
+        <v>0.100997946629946</v>
       </c>
       <c r="F157" t="e">
         <v>#NUM!</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0.297730723413137</v>
+        <v>-2.19825168772639</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0.886106635244011</v>
+        <v>1.15447263894981</v>
       </c>
       <c r="E158" t="n">
-        <v>0.11416724399945</v>
+        <v>0.151252913245968</v>
       </c>
       <c r="F158" t="e">
         <v>#NUM!</v>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.938502327632873</v>
+        <v>1.09639318796601</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -5536,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.741070248429453</v>
+        <v>1.08777038580288</v>
       </c>
       <c r="E159" t="n">
-        <v>0.100982081166322</v>
+        <v>0.134679943232666</v>
       </c>
       <c r="F159" t="e">
         <v>#NUM!</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.1990931594096</v>
+        <v>0.679494001913104</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1.15432968464627</v>
+        <v>1.22243994184808</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1512247386231</v>
+        <v>0.151445981491242</v>
       </c>
       <c r="F160" t="e">
         <v>#NUM!</v>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1.09551641696296</v>
+        <v>1.62120915913463</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -5594,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1.08760716448429</v>
+        <v>1.21821691727151</v>
       </c>
       <c r="E161" t="n">
-        <v>0.13465047793545</v>
+        <v>0.177946592585085</v>
       </c>
       <c r="F161" t="e">
         <v>#NUM!</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0.678328618729425</v>
+        <v>1.35131388343599</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1.22226690827802</v>
+        <v>0.909304510331355</v>
       </c>
       <c r="E162" t="n">
-        <v>0.151414136290595</v>
+        <v>0.113234375316662</v>
       </c>
       <c r="F162" t="e">
         <v>#NUM!</v>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1.62017790020861</v>
+        <v>-0.763481494045423</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>1.21805758499837</v>
+        <v>1.27892870124716</v>
       </c>
       <c r="E163" t="n">
-        <v>0.177914322365921</v>
+        <v>0.157870224507979</v>
       </c>
       <c r="F163" t="e">
         <v>#NUM!</v>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>1.35048671576391</v>
+        <v>1.99306480702457</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -5681,10 +5681,10 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.909179602681636</v>
+        <v>0.875148842795868</v>
       </c>
       <c r="E164" t="n">
-        <v>0.113211114002553</v>
+        <v>0.108322321707932</v>
       </c>
       <c r="F164" t="e">
         <v>#NUM!</v>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.764636707725258</v>
+        <v>-1.07744171688156</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -5710,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1.2787693623592</v>
+        <v>1.09126272202109</v>
       </c>
       <c r="E165" t="n">
-        <v>0.15783961387498</v>
+        <v>0.134188330664195</v>
       </c>
       <c r="F165" t="e">
         <v>#NUM!</v>
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1.99219353663547</v>
+        <v>0.71024030220391</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -5739,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.875034855468607</v>
+        <v>0.836306167253331</v>
       </c>
       <c r="E166" t="n">
-        <v>0.108300745792989</v>
+        <v>0.0585344911132828</v>
       </c>
       <c r="F166" t="e">
         <v>#NUM!</v>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>-1.07856844223554</v>
+        <v>-2.55402428988592</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -5768,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1.09110931446947</v>
+        <v>0.98752006419692</v>
       </c>
       <c r="E167" t="n">
-        <v>0.134160103163894</v>
+        <v>0.0409880065985669</v>
       </c>
       <c r="F167" t="e">
         <v>#NUM!</v>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0.709146486832757</v>
+        <v>-0.302569859840879</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.83632174611285</v>
+        <v>0.984026119581541</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0585345486523568</v>
+        <v>0.047106880569148</v>
       </c>
       <c r="F168" t="e">
         <v>#NUM!</v>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>-2.553803205478</v>
+        <v>-0.336375769145902</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -5826,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1.02603859007474</v>
+        <v>0.898705725770879</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0454417208961586</v>
+        <v>0.0429124454283594</v>
       </c>
       <c r="F169" t="e">
         <v>#NUM!</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0.580406924839712</v>
+        <v>-2.23668077826612</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -5855,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.987505138394145</v>
+        <v>0.94222275098039</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0409869664133794</v>
+        <v>0.0465272899816571</v>
       </c>
       <c r="F170" t="e">
         <v>#NUM!</v>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.302937122285982</v>
+        <v>-1.20520744340739</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0.834632928063526</v>
+        <v>1.0588730305121</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0668654891091613</v>
+        <v>0.051968105286717</v>
       </c>
       <c r="F171" t="e">
         <v>#NUM!</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>-2.25633535676439</v>
+        <v>1.16558040369587</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -5913,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1.01657370651027</v>
+        <v>0.945247799907832</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0232022287914611</v>
+        <v>0.0444978053548207</v>
       </c>
       <c r="F172" t="e">
         <v>#NUM!</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0.720202269982365</v>
+        <v>-1.19613017913365</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.95382104494779</v>
+        <v>0.834627190519574</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0199453530280031</v>
+        <v>0.0668652755656657</v>
       </c>
       <c r="F173" t="e">
         <v>#NUM!</v>
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>-2.26097299503853</v>
+        <v>-2.25641285906719</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1.06134799617067</v>
+        <v>1.01657125150446</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0524094072854331</v>
+        <v>0.0232021974161998</v>
       </c>
       <c r="F174" t="e">
         <v>#NUM!</v>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1.20574616422401</v>
+        <v>0.720095695535637</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -6000,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>1.00322005049207</v>
+        <v>0.953814503880074</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0195021038448253</v>
+        <v>0.0199451389523626</v>
       </c>
       <c r="F175" t="e">
         <v>#NUM!</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0.165378531702132</v>
+        <v>-2.26130970906378</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.94441703103338</v>
+        <v>1.00321054540903</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0463504372820824</v>
+        <v>0.0195018419939001</v>
       </c>
       <c r="F176" t="e">
         <v>#NUM!</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>-1.1652272487058</v>
+        <v>0.164891793517689</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -6058,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1.03491813412421</v>
+        <v>1.03492463855694</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0148999246048644</v>
+        <v>0.0149000428685023</v>
       </c>
       <c r="F177" t="e">
         <v>#NUM!</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>2.38395821814441</v>
+        <v>2.38439081856833</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.932525035177277</v>
+        <v>0.932536082008491</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0745662903485361</v>
+        <v>0.0745674465609638</v>
       </c>
       <c r="F178" t="e">
         <v>#NUM!</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.87365923199458</v>
+        <v>-0.873507888356751</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -6116,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.851669588447658</v>
+        <v>0.851680153312766</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0680244359336158</v>
+        <v>0.0680255286669315</v>
       </c>
       <c r="F179" t="e">
         <v>#NUM!</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>-2.01017767847008</v>
+        <v>-2.01001501513195</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0.947680716300301</v>
+        <v>0.947674114997124</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0865958227141339</v>
+        <v>0.0865956372053617</v>
       </c>
       <c r="F180" t="e">
         <v>#NUM!</v>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.588089756183755</v>
+        <v>-0.58816315061571</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -6174,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.892902911881418</v>
+        <v>0.892920111665496</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0723413352500872</v>
+        <v>0.0723429719151528</v>
       </c>
       <c r="F181" t="e">
         <v>#NUM!</v>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>-1.39817356927828</v>
+        <v>-1.39793111387659</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>1.00345576706018</v>
+        <v>1.00346656208488</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0806820490561319</v>
+        <v>0.0806832062387433</v>
       </c>
       <c r="F182" t="e">
         <v>#NUM!</v>
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0429058433345663</v>
+        <v>0.0430394854410816</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1.21798897734465</v>
+        <v>1.21799440882296</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0985303460852598</v>
+        <v>0.0985311464287398</v>
       </c>
       <c r="F183" t="e">
         <v>#NUM!</v>
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>2.43771385517499</v>
+        <v>2.43776004945773</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -6261,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1.04984310931482</v>
+        <v>1.04983659569564</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0841616094595378</v>
+        <v>0.0841614082717156</v>
       </c>
       <c r="F184" t="e">
         <v>#NUM!</v>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.60675097613069</v>
+        <v>0.606671267919712</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -6290,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.895778104342191</v>
+        <v>0.895786872230633</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0712906704643872</v>
+        <v>0.0712916334623096</v>
       </c>
       <c r="F185" t="e">
         <v>#NUM!</v>
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>-1.38295263654356</v>
+        <v>-1.3828245051587</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.95171325839115</v>
+        <v>0.951719578384102</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0220790193144873</v>
+        <v>0.0220792278861039</v>
       </c>
       <c r="F186" t="e">
         <v>#NUM!</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>-2.1333241902776</v>
+        <v>-2.13303196180908</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.902687942504858</v>
+        <v>0.974600543644062</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0435000906636883</v>
+        <v>0.0431639823942272</v>
       </c>
       <c r="F187" t="e">
         <v>#NUM!</v>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>-2.12449476006366</v>
+        <v>-0.580903858979407</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -6377,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0.955814976692169</v>
+        <v>0.962437591425736</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0200759758091586</v>
+        <v>0.0251236751525004</v>
       </c>
       <c r="F188" t="e">
         <v>#NUM!</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>-2.1515348534466</v>
+        <v>-1.4666619567124</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.846903690519377</v>
+        <v>0.902687255219162</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0514267219729646</v>
+        <v>0.0435003900618107</v>
       </c>
       <c r="F189" t="e">
         <v>#NUM!</v>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>-2.73648676996551</v>
+        <v>-2.12449431989535</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1.03902101384835</v>
+        <v>0.955831189538562</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0271227756990416</v>
+        <v>0.0200763460568107</v>
       </c>
       <c r="F190" t="e">
         <v>#NUM!</v>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>1.46639194876678</v>
+        <v>-2.15072410277145</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1.05794137153668</v>
+        <v>0.846875114313185</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0498025093133723</v>
+        <v>0.0514259720228269</v>
       </c>
       <c r="F191" t="e">
         <v>#NUM!</v>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>1.19649514182668</v>
+        <v>-2.73699000776853</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
